--- a/angular/src/assets/sampleFiles/MaterialMaster_Template.xlsx
+++ b/angular/src/assets/sampleFiles/MaterialMaster_Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="274">
   <si>
     <t>MaterialType</t>
   </si>
@@ -709,6 +709,138 @@
   </si>
   <si>
     <t>SHAFT ASSY, PROPELLER, FR</t>
+  </si>
+  <si>
+    <t>160000Y700</t>
+  </si>
+  <si>
+    <t>120000C210</t>
+  </si>
+  <si>
+    <t>12000BZE50</t>
+  </si>
+  <si>
+    <t>160000E370</t>
+  </si>
+  <si>
+    <t>160000E400</t>
+  </si>
+  <si>
+    <t>160000E490</t>
+  </si>
+  <si>
+    <t>16000BZQ30</t>
+  </si>
+  <si>
+    <t>120000E690</t>
+  </si>
+  <si>
+    <t>120000Y170</t>
+  </si>
+  <si>
+    <t>160000Y200</t>
+  </si>
+  <si>
+    <t>160000Y690</t>
+  </si>
+  <si>
+    <t>170000T730</t>
+  </si>
+  <si>
+    <t>120000T210</t>
+  </si>
+  <si>
+    <t>170000T200</t>
+  </si>
+  <si>
+    <t>170000T210</t>
+  </si>
+  <si>
+    <t>120000Y280</t>
+  </si>
+  <si>
+    <t>120000T560</t>
+  </si>
+  <si>
+    <t>170000C280</t>
+  </si>
+  <si>
+    <t>170000T760</t>
+  </si>
+  <si>
+    <t>330300KA75</t>
+  </si>
+  <si>
+    <t>330300KA71</t>
+  </si>
+  <si>
+    <t>330300KA74</t>
+  </si>
+  <si>
+    <t>330300KD30</t>
+  </si>
+  <si>
+    <t>330300KA70</t>
+  </si>
+  <si>
+    <t>583270K030</t>
+  </si>
+  <si>
+    <t>INSULATOR, MAIN MUFFLER HEAT</t>
+  </si>
+  <si>
+    <t>583290K020</t>
+  </si>
+  <si>
+    <t>INSULATOR, MAIN MUFFLER HEAT, RR UPR</t>
+  </si>
+  <si>
+    <t>5832712160</t>
+  </si>
+  <si>
+    <t>839500K120</t>
+  </si>
+  <si>
+    <t>LAMP ASSY, TELLTALE</t>
+  </si>
+  <si>
+    <t>83950BZ050</t>
+  </si>
+  <si>
+    <t>83950BZ100</t>
+  </si>
+  <si>
+    <t>8395002440</t>
+  </si>
+  <si>
+    <t>839500K130</t>
+  </si>
+  <si>
+    <t>8395002260</t>
+  </si>
+  <si>
+    <t>8395002340</t>
+  </si>
+  <si>
+    <t>8395002290</t>
+  </si>
+  <si>
+    <t>8917002D60</t>
+  </si>
+  <si>
+    <t>SENSOR ASSY, AIR BAG</t>
+  </si>
+  <si>
+    <t>8917002D70</t>
+  </si>
+  <si>
+    <t>8917002G10</t>
+  </si>
+  <si>
+    <t>891700KE10</t>
+  </si>
+  <si>
+    <t>891700KE20</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="13">
-        <f xml:space="preserve"> K2</f>
+        <f t="shared" ref="K3:K34" si="0" xml:space="preserve"> K2</f>
         <v>45200</v>
       </c>
       <c r="L3" s="13"/>
@@ -1283,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="13">
-        <f t="shared" ref="K4:K67" si="0" xml:space="preserve"> K3</f>
+        <f t="shared" si="0"/>
         <v>45200</v>
       </c>
       <c r="L4" s="13"/>
@@ -1819,7 +1951,7 @@
         <v>45200</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" ref="L21:L59" si="1">L20</f>
+        <f>L20</f>
         <v>46022</v>
       </c>
     </row>
@@ -1853,7 +1985,7 @@
         <v>45200</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="1"/>
+        <f>L21</f>
         <v>46022</v>
       </c>
     </row>
@@ -1914,7 +2046,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="13">
-        <f xml:space="preserve"> K23</f>
+        <f t="shared" si="0"/>
         <v>45200</v>
       </c>
       <c r="L24" s="13">
@@ -1952,7 +2084,7 @@
         <v>45200</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="1"/>
+        <f>L24</f>
         <v>46022</v>
       </c>
     </row>
@@ -1986,7 +2118,7 @@
         <v>45200</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="1"/>
+        <f>L25</f>
         <v>46022</v>
       </c>
     </row>
@@ -2085,7 +2217,7 @@
         <v>45200</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="1"/>
+        <f>L28</f>
         <v>46022</v>
       </c>
     </row>
@@ -2119,7 +2251,7 @@
         <v>45200</v>
       </c>
       <c r="L30" s="13">
-        <f t="shared" si="1"/>
+        <f>L29</f>
         <v>46022</v>
       </c>
     </row>
@@ -2205,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="11" t="str">
-        <f xml:space="preserve"> F2</f>
+        <f t="shared" ref="F33:F64" si="1" xml:space="preserve"> F2</f>
         <v>4631</v>
       </c>
       <c r="G33" s="11"/>
@@ -2219,7 +2351,7 @@
         <v>45200</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="1"/>
+        <f>L32</f>
         <v>46022</v>
       </c>
     </row>
@@ -2240,7 +2372,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="11" t="str">
-        <f t="shared" ref="F34:F97" si="2" xml:space="preserve"> F3</f>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G34" s="11"/>
@@ -2254,7 +2386,7 @@
         <v>45200</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" si="1"/>
+        <f>L33</f>
         <v>46022</v>
       </c>
     </row>
@@ -2275,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G35" s="11"/>
@@ -2285,11 +2417,11 @@
         <v>18</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K35:K66" si="2" xml:space="preserve"> K34</f>
         <v>45200</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="1"/>
+        <f>L34</f>
         <v>46022</v>
       </c>
     </row>
@@ -2310,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G36" s="11"/>
@@ -2320,11 +2452,11 @@
         <v>18</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L36" s="13">
-        <f t="shared" si="1"/>
+        <f>L35</f>
         <v>46022</v>
       </c>
     </row>
@@ -2345,7 +2477,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G37" s="11"/>
@@ -2355,11 +2487,11 @@
         <v>18</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="1"/>
+        <f>L36</f>
         <v>46022</v>
       </c>
     </row>
@@ -2380,7 +2512,7 @@
         <v>16</v>
       </c>
       <c r="F38" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G38" s="11"/>
@@ -2390,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L38" s="13"/>
@@ -2412,7 +2544,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G39" s="11"/>
@@ -2422,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L39" s="13">
@@ -2447,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G40" s="11"/>
@@ -2457,11 +2589,11 @@
         <v>18</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="1"/>
+        <f>L39</f>
         <v>46022</v>
       </c>
     </row>
@@ -2482,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G41" s="11"/>
@@ -2492,7 +2624,7 @@
         <v>18</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L41" s="13"/>
@@ -2514,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G42" s="11"/>
@@ -2524,7 +2656,7 @@
         <v>18</v>
       </c>
       <c r="K42" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L42" s="13"/>
@@ -2546,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="F43" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G43" s="11"/>
@@ -2556,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L43" s="13">
@@ -2581,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G44" s="11"/>
@@ -2591,11 +2723,11 @@
         <v>18</v>
       </c>
       <c r="K44" s="13">
-        <f xml:space="preserve"> K43</f>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L44" s="13">
-        <f t="shared" si="1"/>
+        <f>L43</f>
         <v>46022</v>
       </c>
     </row>
@@ -2616,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G45" s="11"/>
@@ -2626,11 +2758,11 @@
         <v>18</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="1"/>
+        <f>L44</f>
         <v>46022</v>
       </c>
     </row>
@@ -2651,7 +2783,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G46" s="11"/>
@@ -2661,11 +2793,11 @@
         <v>18</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="1"/>
+        <f>L45</f>
         <v>46022</v>
       </c>
     </row>
@@ -2686,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G47" s="11"/>
@@ -2696,11 +2828,11 @@
         <v>18</v>
       </c>
       <c r="K47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="1"/>
+        <f>L46</f>
         <v>46022</v>
       </c>
     </row>
@@ -2721,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G48" s="11"/>
@@ -2731,7 +2863,7 @@
         <v>18</v>
       </c>
       <c r="K48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L48" s="13"/>
@@ -2753,7 +2885,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G49" s="11"/>
@@ -2763,7 +2895,7 @@
         <v>18</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L49" s="13"/>
@@ -2785,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G50" s="11"/>
@@ -2795,7 +2927,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L50" s="13"/>
@@ -2817,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G51" s="11"/>
@@ -2827,7 +2959,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L51" s="13">
@@ -2852,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G52" s="11"/>
@@ -2862,11 +2994,11 @@
         <v>18</v>
       </c>
       <c r="K52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L52" s="13">
-        <f t="shared" si="1"/>
+        <f>L51</f>
         <v>46022</v>
       </c>
     </row>
@@ -2887,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="F53" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G53" s="11"/>
@@ -2897,11 +3029,11 @@
         <v>18</v>
       </c>
       <c r="K53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L53" s="13">
-        <f t="shared" si="1"/>
+        <f>L52</f>
         <v>46022</v>
       </c>
     </row>
@@ -2922,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="F54" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G54" s="11"/>
@@ -2932,11 +3064,11 @@
         <v>18</v>
       </c>
       <c r="K54" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L54" s="13">
-        <f t="shared" si="1"/>
+        <f>L53</f>
         <v>46022</v>
       </c>
     </row>
@@ -2957,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G55" s="11"/>
@@ -2967,7 +3099,7 @@
         <v>18</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L55" s="13"/>
@@ -2989,7 +3121,7 @@
         <v>16</v>
       </c>
       <c r="F56" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G56" s="11"/>
@@ -2999,7 +3131,7 @@
         <v>18</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L56" s="13">
@@ -3024,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="F57" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G57" s="11"/>
@@ -3034,7 +3166,7 @@
         <v>18</v>
       </c>
       <c r="K57" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L57" s="13">
@@ -3059,7 +3191,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G58" s="11"/>
@@ -3069,11 +3201,11 @@
         <v>18</v>
       </c>
       <c r="K58" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L58" s="13">
-        <f t="shared" si="1"/>
+        <f>L57</f>
         <v>46022</v>
       </c>
     </row>
@@ -3094,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G59" s="11"/>
@@ -3104,11 +3236,11 @@
         <v>18</v>
       </c>
       <c r="K59" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" si="1"/>
+        <f>L58</f>
         <v>46022</v>
       </c>
     </row>
@@ -3129,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G60" s="11"/>
@@ -3139,7 +3271,7 @@
         <v>18</v>
       </c>
       <c r="K60" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L60" s="13"/>
@@ -3161,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G61" s="11"/>
@@ -3171,7 +3303,7 @@
         <v>18</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L61" s="13"/>
@@ -3193,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="F62" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G62" s="11"/>
@@ -3203,7 +3335,7 @@
         <v>18</v>
       </c>
       <c r="K62" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L62" s="13"/>
@@ -3225,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G63" s="11"/>
@@ -3235,7 +3367,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L63" s="13"/>
@@ -3257,7 +3389,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4631</v>
       </c>
       <c r="G64" s="11"/>
@@ -3267,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="K64" s="13">
-        <f xml:space="preserve"> K63</f>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L64" s="13"/>
@@ -3289,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F65:F96" si="3" xml:space="preserve"> F34</f>
         <v>4631</v>
       </c>
       <c r="G65" s="11"/>
@@ -3299,7 +3431,7 @@
         <v>18</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L65" s="13"/>
@@ -3321,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="F66" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G66" s="11"/>
@@ -3331,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45200</v>
       </c>
       <c r="L66" s="13"/>
@@ -3353,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G67" s="11"/>
@@ -3363,7 +3495,7 @@
         <v>18</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K67:K93" si="4" xml:space="preserve"> K66</f>
         <v>45200</v>
       </c>
       <c r="L67" s="13"/>
@@ -3385,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G68" s="11"/>
@@ -3395,7 +3527,7 @@
         <v>18</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" ref="K68:K78" si="3" xml:space="preserve"> K67</f>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L68" s="13"/>
@@ -3417,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="F69" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G69" s="11"/>
@@ -3427,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L69" s="13"/>
@@ -3449,7 +3581,7 @@
         <v>16</v>
       </c>
       <c r="F70" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G70" s="11"/>
@@ -3459,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L70" s="13"/>
@@ -3481,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G71" s="11"/>
@@ -3491,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L71" s="13">
@@ -3515,7 +3647,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G72" s="11"/>
@@ -3525,7 +3657,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L72" s="13">
@@ -3550,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G73" s="11"/>
@@ -3560,11 +3692,11 @@
         <v>18</v>
       </c>
       <c r="K73" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" ref="L73:L90" si="4">L72</f>
+        <f>L72</f>
         <v>45658</v>
       </c>
     </row>
@@ -3585,7 +3717,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G74" s="11"/>
@@ -3595,11 +3727,11 @@
         <v>18</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="4"/>
+        <f>L73</f>
         <v>45658</v>
       </c>
     </row>
@@ -3620,7 +3752,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G75" s="11"/>
@@ -3630,11 +3762,11 @@
         <v>18</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="4"/>
+        <f>L74</f>
         <v>45658</v>
       </c>
     </row>
@@ -3655,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G76" s="11"/>
@@ -3665,11 +3797,11 @@
         <v>18</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="4"/>
+        <f>L75</f>
         <v>45658</v>
       </c>
     </row>
@@ -3690,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G77" s="11"/>
@@ -3700,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L77" s="13"/>
@@ -3722,7 +3854,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G78" s="11"/>
@@ -3732,7 +3864,7 @@
         <v>18</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L78" s="13">
@@ -3757,7 +3889,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G79" s="11"/>
@@ -3767,11 +3899,11 @@
         <v>18</v>
       </c>
       <c r="K79" s="13">
-        <f xml:space="preserve"> K78</f>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="4"/>
+        <f>L78</f>
         <v>45658</v>
       </c>
     </row>
@@ -3792,7 +3924,7 @@
         <v>16</v>
       </c>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G80" s="11"/>
@@ -3802,11 +3934,11 @@
         <v>18</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" ref="K80:K101" si="5" xml:space="preserve"> K79</f>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L80" s="13">
-        <f t="shared" si="4"/>
+        <f>L79</f>
         <v>45658</v>
       </c>
     </row>
@@ -3827,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G81" s="11"/>
@@ -3837,11 +3969,11 @@
         <v>18</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="4"/>
+        <f>L80</f>
         <v>45658</v>
       </c>
     </row>
@@ -3862,7 +3994,7 @@
         <v>16</v>
       </c>
       <c r="F82" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G82" s="11"/>
@@ -3872,11 +4004,11 @@
         <v>18</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L82" s="13">
-        <f t="shared" si="4"/>
+        <f>L81</f>
         <v>45658</v>
       </c>
     </row>
@@ -3897,7 +4029,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G83" s="11"/>
@@ -3907,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L83" s="13"/>
@@ -3929,7 +4061,7 @@
         <v>16</v>
       </c>
       <c r="F84" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G84" s="11"/>
@@ -3939,7 +4071,7 @@
         <v>18</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L84" s="13">
@@ -3964,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="F85" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G85" s="11"/>
@@ -3974,11 +4106,11 @@
         <v>18</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="4"/>
+        <f>L84</f>
         <v>45658</v>
       </c>
     </row>
@@ -3999,7 +4131,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G86" s="11"/>
@@ -4009,11 +4141,11 @@
         <v>18</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L86" s="13">
-        <f t="shared" si="4"/>
+        <f>L85</f>
         <v>45658</v>
       </c>
     </row>
@@ -4034,7 +4166,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G87" s="11"/>
@@ -4044,11 +4176,11 @@
         <v>18</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="4"/>
+        <f>L86</f>
         <v>45658</v>
       </c>
     </row>
@@ -4069,7 +4201,7 @@
         <v>16</v>
       </c>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G88" s="11"/>
@@ -4079,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="K88" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L88" s="13"/>
@@ -4101,7 +4233,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G89" s="11"/>
@@ -4111,7 +4243,7 @@
         <v>18</v>
       </c>
       <c r="K89" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L89" s="13">
@@ -4136,7 +4268,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G90" s="11"/>
@@ -4146,11 +4278,11 @@
         <v>18</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="4"/>
+        <f>L89</f>
         <v>45658</v>
       </c>
     </row>
@@ -4171,7 +4303,7 @@
         <v>16</v>
       </c>
       <c r="F91" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G91" s="11"/>
@@ -4181,7 +4313,7 @@
         <v>18</v>
       </c>
       <c r="K91" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L91" s="13"/>
@@ -4203,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G92" s="11"/>
@@ -4213,7 +4345,7 @@
         <v>18</v>
       </c>
       <c r="K92" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L92" s="13"/>
@@ -4235,7 +4367,7 @@
         <v>16</v>
       </c>
       <c r="F93" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G93" s="11"/>
@@ -4245,7 +4377,7 @@
         <v>18</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45200</v>
       </c>
       <c r="L93" s="13"/>
@@ -4267,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="F94" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G94" s="11"/>
@@ -4298,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G95" s="11"/>
@@ -4308,7 +4440,7 @@
         <v>18</v>
       </c>
       <c r="K95" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K95:K123" si="5" xml:space="preserve"> K94</f>
         <v>45209</v>
       </c>
       <c r="L95" s="13"/>
@@ -4330,7 +4462,7 @@
         <v>16</v>
       </c>
       <c r="F96" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4631</v>
       </c>
       <c r="G96" s="11"/>
@@ -4362,7 +4494,7 @@
         <v>16</v>
       </c>
       <c r="F97" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F97:F128" si="6" xml:space="preserve"> F66</f>
         <v>4631</v>
       </c>
       <c r="G97" s="11"/>
@@ -4394,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="F98" s="11" t="str">
-        <f t="shared" ref="F98:F104" si="6" xml:space="preserve"> F67</f>
+        <f t="shared" si="6"/>
         <v>4631</v>
       </c>
       <c r="G98" s="11"/>
@@ -4468,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="K100" s="13">
-        <f xml:space="preserve"> K99</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="L100" s="13"/>
@@ -4532,7 +4664,7 @@
         <v>18</v>
       </c>
       <c r="K102" s="13">
-        <f xml:space="preserve"> K101</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="L102" s="13"/>
@@ -4564,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="K103" s="13">
-        <f t="shared" ref="K103:K104" si="7" xml:space="preserve"> K102</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="L103" s="13"/>
@@ -4596,10 +4728,1273 @@
         <v>18</v>
       </c>
       <c r="K104" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="L104" s="13"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L108" s="11"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L117" s="11"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L118" s="11"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L120" s="11"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L122" s="11"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="13">
+        <f t="shared" si="5"/>
+        <v>45209</v>
+      </c>
+      <c r="L123" s="11"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="13">
+        <f>K123</f>
+        <v>45209</v>
+      </c>
+      <c r="L124" s="11"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="13">
+        <f>K124</f>
+        <v>45209</v>
+      </c>
+      <c r="L125" s="11"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13">
+        <f>K125</f>
+        <v>45209</v>
+      </c>
+      <c r="L126" s="11"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="13">
+        <f>K126</f>
+        <v>45209</v>
+      </c>
+      <c r="L127" s="11"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="13">
+        <f>K127</f>
+        <v>45209</v>
+      </c>
+      <c r="L128" s="11"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="13">
+        <v>45170</v>
+      </c>
+      <c r="L129" s="11"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13">
+        <f>K129</f>
+        <v>45170</v>
+      </c>
+      <c r="L130" s="11"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="13">
+        <f>K130</f>
+        <v>45170</v>
+      </c>
+      <c r="L131" s="11"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="13">
+        <v>45158</v>
+      </c>
+      <c r="L132" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="13">
+        <f>K132</f>
+        <v>45158</v>
+      </c>
+      <c r="L133" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="13">
+        <f>K133</f>
+        <v>45158</v>
+      </c>
+      <c r="L134" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="13">
+        <f>K134</f>
+        <v>45158</v>
+      </c>
+      <c r="L135" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="13">
+        <f>K135</f>
+        <v>45158</v>
+      </c>
+      <c r="L136" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" s="13">
+        <f>K136</f>
+        <v>45158</v>
+      </c>
+      <c r="L137" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="13">
+        <f>K137</f>
+        <v>45158</v>
+      </c>
+      <c r="L138" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="13">
+        <f>K138</f>
+        <v>45158</v>
+      </c>
+      <c r="L139" s="13">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="13">
+        <v>45167</v>
+      </c>
+      <c r="L140" s="13">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" s="13">
+        <f>K140</f>
+        <v>45167</v>
+      </c>
+      <c r="L141" s="13">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="13">
+        <f>K141</f>
+        <v>45167</v>
+      </c>
+      <c r="L142" s="13">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="13">
+        <f>K142</f>
+        <v>45167</v>
+      </c>
+      <c r="L143" s="13">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="13">
+        <f>K143</f>
+        <v>45167</v>
+      </c>
+      <c r="L144" s="13">
+        <v>45413</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/angular/src/assets/sampleFiles/MaterialMaster_Template.xlsx
+++ b/angular/src/assets/sampleFiles/MaterialMaster_Template.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\tmss\angular\src\assets\sampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\DoAnTotNghiep\angular\src\assets\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D2EFB-E1C3-4DAD-9F6B-F9036F49F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="7305"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaterialMaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -846,7 +860,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -1269,30 +1283,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1367,9 @@
       <c r="H2" s="16">
         <v>500000</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="16">
+        <v>100000</v>
+      </c>
       <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1362,7 +1378,7 @@
       </c>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -1385,7 +1401,9 @@
       <c r="H3" s="16">
         <v>520000</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="16">
+        <v>100000</v>
+      </c>
       <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1413,7 @@
       </c>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1436,9 @@
       <c r="H4" s="16">
         <v>550000</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="16">
+        <v>100000</v>
+      </c>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1448,7 @@
       </c>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1471,9 @@
       <c r="H5" s="16">
         <v>540000</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="16">
+        <v>100000</v>
+      </c>
       <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1483,7 @@
       </c>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1484,7 +1506,9 @@
       <c r="H6" s="16">
         <v>560000</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="16">
+        <v>100000</v>
+      </c>
       <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1518,7 @@
       </c>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
@@ -1517,7 +1541,9 @@
       <c r="H7" s="16">
         <v>560000</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="16">
+        <v>100000</v>
+      </c>
       <c r="J7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1553,7 @@
       </c>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1576,9 @@
       <c r="H8" s="16">
         <v>550000</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="16">
+        <v>100000</v>
+      </c>
       <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1560,7 +1588,7 @@
       </c>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1611,9 @@
       <c r="H9" s="16">
         <v>550000</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="16">
+        <v>100000</v>
+      </c>
       <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1623,7 @@
       </c>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -1616,7 +1646,9 @@
       <c r="H10" s="16">
         <v>700000</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="16">
+        <v>150000</v>
+      </c>
       <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1658,7 @@
       </c>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
@@ -1649,7 +1681,9 @@
       <c r="H11" s="16">
         <v>530000</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="16">
+        <v>100000</v>
+      </c>
       <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1659,7 +1693,7 @@
       </c>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1716,9 @@
       <c r="H12" s="16">
         <v>525000</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="16">
+        <v>100000</v>
+      </c>
       <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1728,7 @@
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
@@ -1715,7 +1751,9 @@
       <c r="H13" s="16">
         <v>560000</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="16">
+        <v>100000</v>
+      </c>
       <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1725,7 +1763,7 @@
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -1748,7 +1786,9 @@
       <c r="H14" s="16">
         <v>300000</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="16">
+        <v>60000</v>
+      </c>
       <c r="J14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1798,7 @@
       </c>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1781,7 +1821,9 @@
       <c r="H15" s="16">
         <v>310000</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="16">
+        <v>60000</v>
+      </c>
       <c r="J15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1833,7 @@
       </c>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1814,7 +1856,9 @@
       <c r="H16" s="16">
         <v>410000</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="16">
+        <v>90000</v>
+      </c>
       <c r="J16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1868,7 @@
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1847,7 +1891,9 @@
       <c r="H17" s="16">
         <v>430000</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="16">
+        <v>90000</v>
+      </c>
       <c r="J17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1903,7 @@
       </c>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -1880,7 +1926,9 @@
       <c r="H18" s="16">
         <v>420000</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="16">
+        <v>90000</v>
+      </c>
       <c r="J18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1890,7 +1938,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +1961,9 @@
       <c r="H19" s="16">
         <v>325000</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="16">
+        <v>90000</v>
+      </c>
       <c r="J19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1925,7 +1975,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +1998,9 @@
       <c r="H20" s="16">
         <v>350000</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="16">
+        <v>90000</v>
+      </c>
       <c r="J20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +2013,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +2036,9 @@
       <c r="H21" s="16">
         <v>450000</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="16">
+        <v>90000</v>
+      </c>
       <c r="J21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1997,7 +2051,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2074,9 @@
       <c r="H22" s="16">
         <v>440000</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="16">
+        <v>90000</v>
+      </c>
       <c r="J22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2033,7 +2089,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2112,9 @@
       <c r="H23" s="16">
         <v>460000</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="16">
+        <v>90000</v>
+      </c>
       <c r="J23" s="10" t="s">
         <v>18</v>
       </c>
@@ -2066,7 +2124,7 @@
       </c>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
@@ -2089,7 +2147,9 @@
       <c r="H24" s="16">
         <v>410000</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="16">
+        <v>90000</v>
+      </c>
       <c r="J24" s="10" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2162,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2185,9 @@
       <c r="H25" s="16">
         <v>390000</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="16">
+        <v>90000</v>
+      </c>
       <c r="J25" s="10" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2200,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -2161,7 +2223,9 @@
       <c r="H26" s="16">
         <v>400000</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="16">
+        <v>90000</v>
+      </c>
       <c r="J26" s="10" t="s">
         <v>18</v>
       </c>
@@ -2174,7 +2238,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2261,9 @@
       <c r="H27" s="16">
         <v>360000</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="16">
+        <v>90000</v>
+      </c>
       <c r="J27" s="10" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2273,7 @@
       </c>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2296,9 @@
       <c r="H28" s="16">
         <v>360000</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="16">
+        <v>90000</v>
+      </c>
       <c r="J28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2243,7 +2311,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2334,9 @@
       <c r="H29" s="16">
         <v>360000</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="16">
+        <v>90000</v>
+      </c>
       <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2349,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>12</v>
       </c>
@@ -2302,7 +2372,9 @@
       <c r="H30" s="16">
         <v>360000</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="16">
+        <v>90000</v>
+      </c>
       <c r="J30" s="10" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2387,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2410,9 @@
       <c r="H31" s="16">
         <v>444000</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="16">
+        <v>90000</v>
+      </c>
       <c r="J31" s="10" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2422,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2445,9 @@
       <c r="H32" s="16">
         <v>464000</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="16">
+        <v>90000</v>
+      </c>
       <c r="J32" s="10" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2460,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2484,9 @@
       <c r="H33" s="16">
         <v>440000</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="16">
+        <v>90000</v>
+      </c>
       <c r="J33" s="10" t="s">
         <v>18</v>
       </c>
@@ -2421,7 +2499,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
@@ -2445,7 +2523,9 @@
       <c r="H34" s="16">
         <v>415000</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="16">
+        <v>90000</v>
+      </c>
       <c r="J34" s="10" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2538,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2562,9 @@
       <c r="H35" s="16">
         <v>350000</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="16">
+        <v>90000</v>
+      </c>
       <c r="J35" s="10" t="s">
         <v>18</v>
       </c>
@@ -2495,7 +2577,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>12</v>
       </c>
@@ -2519,7 +2601,9 @@
       <c r="H36" s="16">
         <v>350000</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="16">
+        <v>90000</v>
+      </c>
       <c r="J36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2616,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2640,9 @@
       <c r="H37" s="16">
         <v>350000</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="16">
+        <v>90000</v>
+      </c>
       <c r="J37" s="10" t="s">
         <v>18</v>
       </c>
@@ -2569,7 +2655,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2679,9 @@
       <c r="H38" s="16">
         <v>350000</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="16">
+        <v>90000</v>
+      </c>
       <c r="J38" s="10" t="s">
         <v>18</v>
       </c>
@@ -2603,7 +2691,7 @@
       </c>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>12</v>
       </c>
@@ -2627,7 +2715,9 @@
       <c r="H39" s="16">
         <v>350000</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="16">
+        <v>90000</v>
+      </c>
       <c r="J39" s="10" t="s">
         <v>18</v>
       </c>
@@ -2640,7 +2730,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>12</v>
       </c>
@@ -2664,7 +2754,9 @@
       <c r="H40" s="16">
         <v>350000</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" s="16">
+        <v>90000</v>
+      </c>
       <c r="J40" s="10" t="s">
         <v>18</v>
       </c>
@@ -2677,7 +2769,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>12</v>
       </c>
@@ -2701,7 +2793,9 @@
       <c r="H41" s="16">
         <v>350000</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="16">
+        <v>90000</v>
+      </c>
       <c r="J41" s="10" t="s">
         <v>18</v>
       </c>
@@ -2711,7 +2805,7 @@
       </c>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2829,9 @@
       <c r="H42" s="16">
         <v>350000</v>
       </c>
-      <c r="I42" s="10"/>
+      <c r="I42" s="16">
+        <v>90000</v>
+      </c>
       <c r="J42" s="10" t="s">
         <v>18</v>
       </c>
@@ -2745,7 +2841,7 @@
       </c>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>12</v>
       </c>
@@ -2769,7 +2865,9 @@
       <c r="H43" s="16">
         <v>350000</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" s="16">
+        <v>90000</v>
+      </c>
       <c r="J43" s="10" t="s">
         <v>18</v>
       </c>
@@ -2782,7 +2880,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>12</v>
       </c>
@@ -2806,7 +2904,9 @@
       <c r="H44" s="16">
         <v>350000</v>
       </c>
-      <c r="I44" s="10"/>
+      <c r="I44" s="16">
+        <v>90000</v>
+      </c>
       <c r="J44" s="10" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +2919,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +2943,9 @@
       <c r="H45" s="16">
         <v>350000</v>
       </c>
-      <c r="I45" s="10"/>
+      <c r="I45" s="16">
+        <v>90000</v>
+      </c>
       <c r="J45" s="10" t="s">
         <v>18</v>
       </c>
@@ -2856,7 +2958,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>12</v>
       </c>
@@ -2880,7 +2982,9 @@
       <c r="H46" s="16">
         <v>350000</v>
       </c>
-      <c r="I46" s="10"/>
+      <c r="I46" s="16">
+        <v>90000</v>
+      </c>
       <c r="J46" s="10" t="s">
         <v>18</v>
       </c>
@@ -2893,7 +2997,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>12</v>
       </c>
@@ -2917,7 +3021,9 @@
       <c r="H47" s="16">
         <v>350000</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" s="16">
+        <v>90000</v>
+      </c>
       <c r="J47" s="10" t="s">
         <v>18</v>
       </c>
@@ -2930,7 +3036,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +3060,9 @@
       <c r="H48" s="16">
         <v>350000</v>
       </c>
-      <c r="I48" s="10"/>
+      <c r="I48" s="16">
+        <v>90000</v>
+      </c>
       <c r="J48" s="10" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +3072,7 @@
       </c>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>12</v>
       </c>
@@ -2988,7 +3096,9 @@
       <c r="H49" s="16">
         <v>350000</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" s="16">
+        <v>90000</v>
+      </c>
       <c r="J49" s="10" t="s">
         <v>18</v>
       </c>
@@ -2998,7 +3108,7 @@
       </c>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>12</v>
       </c>
@@ -3022,7 +3132,9 @@
       <c r="H50" s="16">
         <v>350000</v>
       </c>
-      <c r="I50" s="10"/>
+      <c r="I50" s="16">
+        <v>90000</v>
+      </c>
       <c r="J50" s="10" t="s">
         <v>18</v>
       </c>
@@ -3032,7 +3144,7 @@
       </c>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3168,9 @@
       <c r="H51" s="16">
         <v>350000</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" s="16">
+        <v>90000</v>
+      </c>
       <c r="J51" s="10" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3183,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>12</v>
       </c>
@@ -3093,7 +3207,9 @@
       <c r="H52" s="16">
         <v>350000</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" s="16">
+        <v>90000</v>
+      </c>
       <c r="J52" s="10" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3222,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>12</v>
       </c>
@@ -3130,7 +3246,9 @@
       <c r="H53" s="16">
         <v>225000</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="16">
+        <v>90000</v>
+      </c>
       <c r="J53" s="10" t="s">
         <v>18</v>
       </c>
@@ -3143,7 +3261,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +3285,9 @@
       <c r="H54" s="16">
         <v>760000</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="16">
+        <v>160000</v>
+      </c>
       <c r="J54" s="10" t="s">
         <v>18</v>
       </c>
@@ -3180,7 +3300,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -3204,7 +3324,9 @@
       <c r="H55" s="16">
         <v>750000</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="16">
+        <v>160000</v>
+      </c>
       <c r="J55" s="10" t="s">
         <v>18</v>
       </c>
@@ -3214,7 +3336,7 @@
       </c>
       <c r="L55" s="12"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
@@ -3238,7 +3360,9 @@
       <c r="H56" s="16">
         <v>740000</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" s="16">
+        <v>160000</v>
+      </c>
       <c r="J56" s="10" t="s">
         <v>18</v>
       </c>
@@ -3251,7 +3375,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>12</v>
       </c>
@@ -3275,7 +3399,9 @@
       <c r="H57" s="16">
         <v>660000</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" s="16">
+        <v>140000</v>
+      </c>
       <c r="J57" s="10" t="s">
         <v>18</v>
       </c>
@@ -3288,7 +3414,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3438,9 @@
       <c r="H58" s="16">
         <v>120000</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" s="16">
+        <v>50000</v>
+      </c>
       <c r="J58" s="10" t="s">
         <v>18</v>
       </c>
@@ -3325,7 +3453,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>12</v>
       </c>
@@ -3349,7 +3477,9 @@
       <c r="H59" s="16">
         <v>120000</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="I59" s="16">
+        <v>50000</v>
+      </c>
       <c r="J59" s="10" t="s">
         <v>18</v>
       </c>
@@ -3362,7 +3492,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3516,9 @@
       <c r="H60" s="16">
         <v>120000</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="16">
+        <v>50000</v>
+      </c>
       <c r="J60" s="10" t="s">
         <v>18</v>
       </c>
@@ -3396,7 +3528,7 @@
       </c>
       <c r="L60" s="12"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>12</v>
       </c>
@@ -3420,7 +3552,9 @@
       <c r="H61" s="16">
         <v>120000</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="I61" s="16">
+        <v>50000</v>
+      </c>
       <c r="J61" s="10" t="s">
         <v>18</v>
       </c>
@@ -3430,7 +3564,7 @@
       </c>
       <c r="L61" s="12"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3588,9 @@
       <c r="H62" s="16">
         <v>99000</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="16">
+        <v>50000</v>
+      </c>
       <c r="J62" s="10" t="s">
         <v>18</v>
       </c>
@@ -3464,7 +3600,7 @@
       </c>
       <c r="L62" s="12"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3624,9 @@
       <c r="H63" s="16">
         <v>99000</v>
       </c>
-      <c r="I63" s="10"/>
+      <c r="I63" s="16">
+        <v>50000</v>
+      </c>
       <c r="J63" s="10" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3636,7 @@
       </c>
       <c r="L63" s="12"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>12</v>
       </c>
@@ -3522,7 +3660,9 @@
       <c r="H64" s="16">
         <v>99000</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="I64" s="16">
+        <v>50000</v>
+      </c>
       <c r="J64" s="10" t="s">
         <v>18</v>
       </c>
@@ -3532,7 +3672,7 @@
       </c>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>12</v>
       </c>
@@ -3556,7 +3696,9 @@
       <c r="H65" s="16">
         <v>99000</v>
       </c>
-      <c r="I65" s="10"/>
+      <c r="I65" s="16">
+        <v>50000</v>
+      </c>
       <c r="J65" s="10" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +3708,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3732,9 @@
       <c r="H66" s="16">
         <v>99000</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="16">
+        <v>50000</v>
+      </c>
       <c r="J66" s="10" t="s">
         <v>18</v>
       </c>
@@ -3600,7 +3744,7 @@
       </c>
       <c r="L66" s="12"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>12</v>
       </c>
@@ -3624,7 +3768,9 @@
       <c r="H67" s="16">
         <v>99000</v>
       </c>
-      <c r="I67" s="10"/>
+      <c r="I67" s="16">
+        <v>50000</v>
+      </c>
       <c r="J67" s="10" t="s">
         <v>18</v>
       </c>
@@ -3634,7 +3780,7 @@
       </c>
       <c r="L67" s="12"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3804,9 @@
       <c r="H68" s="16">
         <v>99000</v>
       </c>
-      <c r="I68" s="10"/>
+      <c r="I68" s="16">
+        <v>50000</v>
+      </c>
       <c r="J68" s="10" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +3816,7 @@
       </c>
       <c r="L68" s="12"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +3840,9 @@
       <c r="H69" s="16">
         <v>99000</v>
       </c>
-      <c r="I69" s="10"/>
+      <c r="I69" s="16">
+        <v>50000</v>
+      </c>
       <c r="J69" s="10" t="s">
         <v>18</v>
       </c>
@@ -3702,7 +3852,7 @@
       </c>
       <c r="L69" s="12"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3876,9 @@
       <c r="H70" s="16">
         <v>99000</v>
       </c>
-      <c r="I70" s="10"/>
+      <c r="I70" s="16">
+        <v>50000</v>
+      </c>
       <c r="J70" s="10" t="s">
         <v>18</v>
       </c>
@@ -3736,7 +3888,7 @@
       </c>
       <c r="L70" s="12"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>12</v>
       </c>
@@ -3760,7 +3912,9 @@
       <c r="H71" s="16">
         <v>99000</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" s="16">
+        <v>50000</v>
+      </c>
       <c r="J71" s="10" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3926,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>12</v>
       </c>
@@ -3796,7 +3950,9 @@
       <c r="H72" s="16">
         <v>599000</v>
       </c>
-      <c r="I72" s="10"/>
+      <c r="I72" s="16">
+        <v>145000</v>
+      </c>
       <c r="J72" s="10" t="s">
         <v>18</v>
       </c>
@@ -3809,7 +3965,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>12</v>
       </c>
@@ -3833,7 +3989,9 @@
       <c r="H73" s="16">
         <v>599000</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="I73" s="16">
+        <v>145000</v>
+      </c>
       <c r="J73" s="10" t="s">
         <v>18</v>
       </c>
@@ -3846,7 +4004,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>12</v>
       </c>
@@ -3870,7 +4028,9 @@
       <c r="H74" s="16">
         <v>599000</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="16">
+        <v>145000</v>
+      </c>
       <c r="J74" s="10" t="s">
         <v>18</v>
       </c>
@@ -3883,7 +4043,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>12</v>
       </c>
@@ -3907,7 +4067,9 @@
       <c r="H75" s="16">
         <v>599000</v>
       </c>
-      <c r="I75" s="10"/>
+      <c r="I75" s="16">
+        <v>145000</v>
+      </c>
       <c r="J75" s="10" t="s">
         <v>18</v>
       </c>
@@ -3920,7 +4082,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +4106,9 @@
       <c r="H76" s="16">
         <v>649000</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="I76" s="16">
+        <v>145000</v>
+      </c>
       <c r="J76" s="10" t="s">
         <v>18</v>
       </c>
@@ -3957,7 +4121,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>12</v>
       </c>
@@ -3981,7 +4145,9 @@
       <c r="H77" s="16">
         <v>649000</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="16">
+        <v>145000</v>
+      </c>
       <c r="J77" s="10" t="s">
         <v>18</v>
       </c>
@@ -3991,7 +4157,7 @@
       </c>
       <c r="L77" s="12"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4181,9 @@
       <c r="H78" s="16">
         <v>219000</v>
       </c>
-      <c r="I78" s="10"/>
+      <c r="I78" s="16">
+        <v>125000</v>
+      </c>
       <c r="J78" s="10" t="s">
         <v>18</v>
       </c>
@@ -4028,7 +4196,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>12</v>
       </c>
@@ -4052,7 +4220,9 @@
       <c r="H79" s="16">
         <v>229000</v>
       </c>
-      <c r="I79" s="10"/>
+      <c r="I79" s="16">
+        <v>125000</v>
+      </c>
       <c r="J79" s="10" t="s">
         <v>18</v>
       </c>
@@ -4065,7 +4235,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4259,9 @@
       <c r="H80" s="16">
         <v>239000</v>
       </c>
-      <c r="I80" s="10"/>
+      <c r="I80" s="16">
+        <v>125000</v>
+      </c>
       <c r="J80" s="10" t="s">
         <v>18</v>
       </c>
@@ -4102,7 +4274,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4298,9 @@
       <c r="H81" s="16">
         <v>249000</v>
       </c>
-      <c r="I81" s="10"/>
+      <c r="I81" s="16">
+        <v>125000</v>
+      </c>
       <c r="J81" s="10" t="s">
         <v>18</v>
       </c>
@@ -4139,7 +4313,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>12</v>
       </c>
@@ -4163,7 +4337,9 @@
       <c r="H82" s="16">
         <v>259000</v>
       </c>
-      <c r="I82" s="10"/>
+      <c r="I82" s="16">
+        <v>125000</v>
+      </c>
       <c r="J82" s="10" t="s">
         <v>18</v>
       </c>
@@ -4176,7 +4352,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>12</v>
       </c>
@@ -4200,7 +4376,9 @@
       <c r="H83" s="16">
         <v>269000</v>
       </c>
-      <c r="I83" s="10"/>
+      <c r="I83" s="16">
+        <v>125000</v>
+      </c>
       <c r="J83" s="10" t="s">
         <v>18</v>
       </c>
@@ -4210,7 +4388,7 @@
       </c>
       <c r="L83" s="12"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4412,9 @@
       <c r="H84" s="16">
         <v>279000</v>
       </c>
-      <c r="I84" s="10"/>
+      <c r="I84" s="16">
+        <v>125000</v>
+      </c>
       <c r="J84" s="10" t="s">
         <v>18</v>
       </c>
@@ -4247,7 +4427,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>12</v>
       </c>
@@ -4271,7 +4451,9 @@
       <c r="H85" s="16">
         <v>289000</v>
       </c>
-      <c r="I85" s="10"/>
+      <c r="I85" s="16">
+        <v>125000</v>
+      </c>
       <c r="J85" s="10" t="s">
         <v>18</v>
       </c>
@@ -4284,7 +4466,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4490,9 @@
       <c r="H86" s="16">
         <v>299000</v>
       </c>
-      <c r="I86" s="10"/>
+      <c r="I86" s="16">
+        <v>125000</v>
+      </c>
       <c r="J86" s="10" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4505,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4529,9 @@
       <c r="H87" s="16">
         <v>309000</v>
       </c>
-      <c r="I87" s="10"/>
+      <c r="I87" s="16">
+        <v>125000</v>
+      </c>
       <c r="J87" s="10" t="s">
         <v>18</v>
       </c>
@@ -4358,7 +4544,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>12</v>
       </c>
@@ -4382,7 +4568,9 @@
       <c r="H88" s="16">
         <v>319000</v>
       </c>
-      <c r="I88" s="10"/>
+      <c r="I88" s="16">
+        <v>125000</v>
+      </c>
       <c r="J88" s="10" t="s">
         <v>18</v>
       </c>
@@ -4392,7 +4580,7 @@
       </c>
       <c r="L88" s="12"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>12</v>
       </c>
@@ -4416,7 +4604,9 @@
       <c r="H89" s="16">
         <v>329000</v>
       </c>
-      <c r="I89" s="10"/>
+      <c r="I89" s="16">
+        <v>125000</v>
+      </c>
       <c r="J89" s="10" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +4619,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4643,9 @@
       <c r="H90" s="16">
         <v>339000</v>
       </c>
-      <c r="I90" s="10"/>
+      <c r="I90" s="16">
+        <v>125000</v>
+      </c>
       <c r="J90" s="10" t="s">
         <v>18</v>
       </c>
@@ -4466,7 +4658,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>12</v>
       </c>
@@ -4490,7 +4682,9 @@
       <c r="H91" s="16">
         <v>349000</v>
       </c>
-      <c r="I91" s="10"/>
+      <c r="I91" s="16">
+        <v>125000</v>
+      </c>
       <c r="J91" s="10" t="s">
         <v>18</v>
       </c>
@@ -4500,7 +4694,7 @@
       </c>
       <c r="L91" s="12"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>12</v>
       </c>
@@ -4524,7 +4718,9 @@
       <c r="H92" s="16">
         <v>359000</v>
       </c>
-      <c r="I92" s="10"/>
+      <c r="I92" s="16">
+        <v>125000</v>
+      </c>
       <c r="J92" s="10" t="s">
         <v>18</v>
       </c>
@@ -4534,7 +4730,7 @@
       </c>
       <c r="L92" s="12"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>12</v>
       </c>
@@ -4558,7 +4754,9 @@
       <c r="H93" s="16">
         <v>369000</v>
       </c>
-      <c r="I93" s="10"/>
+      <c r="I93" s="16">
+        <v>125000</v>
+      </c>
       <c r="J93" s="10" t="s">
         <v>18</v>
       </c>
@@ -4568,7 +4766,7 @@
       </c>
       <c r="L93" s="12"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>12</v>
       </c>
@@ -4592,7 +4790,9 @@
       <c r="H94" s="16">
         <v>999000</v>
       </c>
-      <c r="I94" s="10"/>
+      <c r="I94" s="16">
+        <v>500000</v>
+      </c>
       <c r="J94" s="10" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4801,7 @@
       </c>
       <c r="L94" s="12"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>12</v>
       </c>
@@ -4625,7 +4825,9 @@
       <c r="H95" s="16">
         <v>999000</v>
       </c>
-      <c r="I95" s="10"/>
+      <c r="I95" s="16">
+        <v>500000</v>
+      </c>
       <c r="J95" s="10" t="s">
         <v>18</v>
       </c>
@@ -4635,7 +4837,7 @@
       </c>
       <c r="L95" s="12"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>12</v>
       </c>
@@ -4659,7 +4861,9 @@
       <c r="H96" s="16">
         <v>999000</v>
       </c>
-      <c r="I96" s="10"/>
+      <c r="I96" s="16">
+        <v>500000</v>
+      </c>
       <c r="J96" s="10" t="s">
         <v>18</v>
       </c>
@@ -4669,7 +4873,7 @@
       </c>
       <c r="L96" s="12"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +4897,9 @@
       <c r="H97" s="16">
         <v>840000</v>
       </c>
-      <c r="I97" s="10"/>
+      <c r="I97" s="16">
+        <v>500000</v>
+      </c>
       <c r="J97" s="10" t="s">
         <v>18</v>
       </c>
@@ -4703,7 +4909,7 @@
       </c>
       <c r="L97" s="12"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +4933,9 @@
       <c r="H98" s="16">
         <v>880000</v>
       </c>
-      <c r="I98" s="10"/>
+      <c r="I98" s="16">
+        <v>500000</v>
+      </c>
       <c r="J98" s="10" t="s">
         <v>18</v>
       </c>
@@ -4737,7 +4945,7 @@
       </c>
       <c r="L98" s="12"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>12</v>
       </c>
@@ -4761,7 +4969,9 @@
       <c r="H99" s="16">
         <v>780000</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" s="16">
+        <v>500000</v>
+      </c>
       <c r="J99" s="10" t="s">
         <v>18</v>
       </c>
@@ -4771,7 +4981,7 @@
       </c>
       <c r="L99" s="12"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>12</v>
       </c>
@@ -4795,7 +5005,9 @@
       <c r="H100" s="16">
         <v>770000</v>
       </c>
-      <c r="I100" s="10"/>
+      <c r="I100" s="16">
+        <v>500000</v>
+      </c>
       <c r="J100" s="10" t="s">
         <v>18</v>
       </c>
@@ -4805,7 +5017,7 @@
       </c>
       <c r="L100" s="12"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +5041,9 @@
       <c r="H101" s="16">
         <v>670000</v>
       </c>
-      <c r="I101" s="10"/>
+      <c r="I101" s="16">
+        <v>500000</v>
+      </c>
       <c r="J101" s="10" t="s">
         <v>18</v>
       </c>
@@ -4839,7 +5053,7 @@
       </c>
       <c r="L101" s="12"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>12</v>
       </c>
@@ -4863,7 +5077,9 @@
       <c r="H102" s="16">
         <v>126000</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="I102" s="16">
+        <v>50000</v>
+      </c>
       <c r="J102" s="10" t="s">
         <v>18</v>
       </c>
@@ -4873,7 +5089,7 @@
       </c>
       <c r="L102" s="12"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>12</v>
       </c>
@@ -4897,7 +5113,9 @@
       <c r="H103" s="16">
         <v>345000</v>
       </c>
-      <c r="I103" s="10"/>
+      <c r="I103" s="16">
+        <v>125000</v>
+      </c>
       <c r="J103" s="10" t="s">
         <v>18</v>
       </c>
@@ -4907,7 +5125,7 @@
       </c>
       <c r="L103" s="12"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>12</v>
       </c>
@@ -4931,7 +5149,9 @@
       <c r="H104" s="16">
         <v>369000</v>
       </c>
-      <c r="I104" s="10"/>
+      <c r="I104" s="16">
+        <v>125000</v>
+      </c>
       <c r="J104" s="10" t="s">
         <v>18</v>
       </c>
@@ -4941,7 +5161,7 @@
       </c>
       <c r="L104" s="12"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>12</v>
       </c>
@@ -4964,7 +5184,9 @@
       <c r="H105" s="16">
         <v>910000</v>
       </c>
-      <c r="I105" s="10"/>
+      <c r="I105" s="16">
+        <v>500000</v>
+      </c>
       <c r="J105" s="10" t="s">
         <v>18</v>
       </c>
@@ -4974,7 +5196,7 @@
       </c>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>12</v>
       </c>
@@ -4997,7 +5219,9 @@
       <c r="H106" s="16">
         <v>920000</v>
       </c>
-      <c r="I106" s="10"/>
+      <c r="I106" s="16">
+        <v>500000</v>
+      </c>
       <c r="J106" s="10" t="s">
         <v>18</v>
       </c>
@@ -5007,7 +5231,7 @@
       </c>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>12</v>
       </c>
@@ -5030,7 +5254,9 @@
       <c r="H107" s="16">
         <v>930000</v>
       </c>
-      <c r="I107" s="10"/>
+      <c r="I107" s="16">
+        <v>500000</v>
+      </c>
       <c r="J107" s="10" t="s">
         <v>18</v>
       </c>
@@ -5040,7 +5266,7 @@
       </c>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +5289,9 @@
       <c r="H108" s="16">
         <v>940000</v>
       </c>
-      <c r="I108" s="10"/>
+      <c r="I108" s="16">
+        <v>500000</v>
+      </c>
       <c r="J108" s="10" t="s">
         <v>18</v>
       </c>
@@ -5073,7 +5301,7 @@
       </c>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>12</v>
       </c>
@@ -5096,7 +5324,9 @@
       <c r="H109" s="16">
         <v>950000</v>
       </c>
-      <c r="I109" s="10"/>
+      <c r="I109" s="16">
+        <v>500000</v>
+      </c>
       <c r="J109" s="10" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5336,7 @@
       </c>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>12</v>
       </c>
@@ -5129,7 +5359,9 @@
       <c r="H110" s="16">
         <v>960000</v>
       </c>
-      <c r="I110" s="10"/>
+      <c r="I110" s="16">
+        <v>500000</v>
+      </c>
       <c r="J110" s="10" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5371,7 @@
       </c>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>12</v>
       </c>
@@ -5162,7 +5394,9 @@
       <c r="H111" s="16">
         <v>970000</v>
       </c>
-      <c r="I111" s="10"/>
+      <c r="I111" s="16">
+        <v>500000</v>
+      </c>
       <c r="J111" s="10" t="s">
         <v>18</v>
       </c>
@@ -5172,7 +5406,7 @@
       </c>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>12</v>
       </c>
@@ -5195,7 +5429,9 @@
       <c r="H112" s="16">
         <v>980000</v>
       </c>
-      <c r="I112" s="10"/>
+      <c r="I112" s="16">
+        <v>500000</v>
+      </c>
       <c r="J112" s="10" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5441,7 @@
       </c>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>12</v>
       </c>
@@ -5228,7 +5464,9 @@
       <c r="H113" s="16">
         <v>990000</v>
       </c>
-      <c r="I113" s="10"/>
+      <c r="I113" s="16">
+        <v>500000</v>
+      </c>
       <c r="J113" s="10" t="s">
         <v>18</v>
       </c>
@@ -5238,7 +5476,7 @@
       </c>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>12</v>
       </c>
@@ -5261,7 +5499,9 @@
       <c r="H114" s="16">
         <v>1000000</v>
       </c>
-      <c r="I114" s="10"/>
+      <c r="I114" s="16">
+        <v>600000</v>
+      </c>
       <c r="J114" s="10" t="s">
         <v>18</v>
       </c>
@@ -5271,7 +5511,7 @@
       </c>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +5534,9 @@
       <c r="H115" s="16">
         <v>1010000</v>
       </c>
-      <c r="I115" s="10"/>
+      <c r="I115" s="16">
+        <v>600000</v>
+      </c>
       <c r="J115" s="10" t="s">
         <v>18</v>
       </c>
@@ -5304,7 +5546,7 @@
       </c>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5569,9 @@
       <c r="H116" s="16">
         <v>1020000</v>
       </c>
-      <c r="I116" s="10"/>
+      <c r="I116" s="16">
+        <v>600000</v>
+      </c>
       <c r="J116" s="10" t="s">
         <v>18</v>
       </c>
@@ -5337,7 +5581,7 @@
       </c>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>12</v>
       </c>
@@ -5360,7 +5604,9 @@
       <c r="H117" s="16">
         <v>1030000</v>
       </c>
-      <c r="I117" s="10"/>
+      <c r="I117" s="16">
+        <v>600000</v>
+      </c>
       <c r="J117" s="10" t="s">
         <v>18</v>
       </c>
@@ -5370,7 +5616,7 @@
       </c>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>12</v>
       </c>
@@ -5393,7 +5639,9 @@
       <c r="H118" s="16">
         <v>1040000</v>
       </c>
-      <c r="I118" s="10"/>
+      <c r="I118" s="16">
+        <v>600000</v>
+      </c>
       <c r="J118" s="10" t="s">
         <v>18</v>
       </c>
@@ -5403,7 +5651,7 @@
       </c>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>12</v>
       </c>
@@ -5426,7 +5674,9 @@
       <c r="H119" s="16">
         <v>1050000</v>
       </c>
-      <c r="I119" s="10"/>
+      <c r="I119" s="16">
+        <v>600000</v>
+      </c>
       <c r="J119" s="10" t="s">
         <v>18</v>
       </c>
@@ -5436,7 +5686,7 @@
       </c>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5709,9 @@
       <c r="H120" s="16">
         <v>1060000</v>
       </c>
-      <c r="I120" s="10"/>
+      <c r="I120" s="16">
+        <v>600000</v>
+      </c>
       <c r="J120" s="10" t="s">
         <v>18</v>
       </c>
@@ -5469,7 +5721,7 @@
       </c>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>12</v>
       </c>
@@ -5492,7 +5744,9 @@
       <c r="H121" s="16">
         <v>1070000</v>
       </c>
-      <c r="I121" s="10"/>
+      <c r="I121" s="16">
+        <v>600000</v>
+      </c>
       <c r="J121" s="10" t="s">
         <v>18</v>
       </c>
@@ -5502,7 +5756,7 @@
       </c>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>12</v>
       </c>
@@ -5525,7 +5779,9 @@
       <c r="H122" s="16">
         <v>1080000</v>
       </c>
-      <c r="I122" s="10"/>
+      <c r="I122" s="16">
+        <v>600000</v>
+      </c>
       <c r="J122" s="10" t="s">
         <v>18</v>
       </c>
@@ -5535,7 +5791,7 @@
       </c>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>12</v>
       </c>
@@ -5558,7 +5814,9 @@
       <c r="H123" s="16">
         <v>1090000</v>
       </c>
-      <c r="I123" s="10"/>
+      <c r="I123" s="16">
+        <v>600000</v>
+      </c>
       <c r="J123" s="10" t="s">
         <v>18</v>
       </c>
@@ -5568,7 +5826,7 @@
       </c>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>12</v>
       </c>
@@ -5591,7 +5849,9 @@
       <c r="H124" s="16">
         <v>567000</v>
       </c>
-      <c r="I124" s="10"/>
+      <c r="I124" s="16">
+        <v>500000</v>
+      </c>
       <c r="J124" s="10" t="s">
         <v>18</v>
       </c>
@@ -5601,7 +5861,7 @@
       </c>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>12</v>
       </c>
@@ -5624,7 +5884,9 @@
       <c r="H125" s="16">
         <v>567000</v>
       </c>
-      <c r="I125" s="10"/>
+      <c r="I125" s="16">
+        <v>500000</v>
+      </c>
       <c r="J125" s="10" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +5896,7 @@
       </c>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5919,9 @@
       <c r="H126" s="16">
         <v>567000</v>
       </c>
-      <c r="I126" s="10"/>
+      <c r="I126" s="16">
+        <v>500000</v>
+      </c>
       <c r="J126" s="10" t="s">
         <v>18</v>
       </c>
@@ -5667,7 +5931,7 @@
       </c>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>12</v>
       </c>
@@ -5690,7 +5954,9 @@
       <c r="H127" s="16">
         <v>567000</v>
       </c>
-      <c r="I127" s="10"/>
+      <c r="I127" s="16">
+        <v>500000</v>
+      </c>
       <c r="J127" s="10" t="s">
         <v>18</v>
       </c>
@@ -5700,7 +5966,7 @@
       </c>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>12</v>
       </c>
@@ -5723,7 +5989,9 @@
       <c r="H128" s="16">
         <v>567000</v>
       </c>
-      <c r="I128" s="10"/>
+      <c r="I128" s="16">
+        <v>500000</v>
+      </c>
       <c r="J128" s="10" t="s">
         <v>18</v>
       </c>
@@ -5733,7 +6001,7 @@
       </c>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>12</v>
       </c>
@@ -5756,7 +6024,9 @@
       <c r="H129" s="16">
         <v>678000</v>
       </c>
-      <c r="I129" s="10"/>
+      <c r="I129" s="16">
+        <v>500000</v>
+      </c>
       <c r="J129" s="10" t="s">
         <v>18</v>
       </c>
@@ -5765,7 +6035,7 @@
       </c>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>12</v>
       </c>
@@ -5788,7 +6058,9 @@
       <c r="H130" s="16">
         <v>678000</v>
       </c>
-      <c r="I130" s="10"/>
+      <c r="I130" s="16">
+        <v>500000</v>
+      </c>
       <c r="J130" s="10" t="s">
         <v>18</v>
       </c>
@@ -5798,7 +6070,7 @@
       </c>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +6093,9 @@
       <c r="H131" s="16">
         <v>675000</v>
       </c>
-      <c r="I131" s="10"/>
+      <c r="I131" s="16">
+        <v>500000</v>
+      </c>
       <c r="J131" s="10" t="s">
         <v>18</v>
       </c>
@@ -5831,7 +6105,7 @@
       </c>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>12</v>
       </c>
@@ -5854,7 +6128,9 @@
       <c r="H132" s="16">
         <v>129000</v>
       </c>
-      <c r="I132" s="10"/>
+      <c r="I132" s="16">
+        <v>50000</v>
+      </c>
       <c r="J132" s="10" t="s">
         <v>18</v>
       </c>
@@ -5865,7 +6141,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>12</v>
       </c>
@@ -5888,7 +6164,9 @@
       <c r="H133" s="16">
         <v>129000</v>
       </c>
-      <c r="I133" s="10"/>
+      <c r="I133" s="16">
+        <v>50000</v>
+      </c>
       <c r="J133" s="10" t="s">
         <v>18</v>
       </c>
@@ -5900,7 +6178,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>12</v>
       </c>
@@ -5923,7 +6201,9 @@
       <c r="H134" s="16">
         <v>129000</v>
       </c>
-      <c r="I134" s="10"/>
+      <c r="I134" s="16">
+        <v>50000</v>
+      </c>
       <c r="J134" s="10" t="s">
         <v>18</v>
       </c>
@@ -5935,7 +6215,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>12</v>
       </c>
@@ -5958,7 +6238,9 @@
       <c r="H135" s="16">
         <v>129000</v>
       </c>
-      <c r="I135" s="10"/>
+      <c r="I135" s="16">
+        <v>50000</v>
+      </c>
       <c r="J135" s="10" t="s">
         <v>18</v>
       </c>
@@ -5970,7 +6252,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>12</v>
       </c>
@@ -5993,7 +6275,9 @@
       <c r="H136" s="16">
         <v>129000</v>
       </c>
-      <c r="I136" s="10"/>
+      <c r="I136" s="16">
+        <v>50000</v>
+      </c>
       <c r="J136" s="10" t="s">
         <v>18</v>
       </c>
@@ -6005,7 +6289,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +6312,9 @@
       <c r="H137" s="16">
         <v>129000</v>
       </c>
-      <c r="I137" s="10"/>
+      <c r="I137" s="16">
+        <v>50000</v>
+      </c>
       <c r="J137" s="10" t="s">
         <v>18</v>
       </c>
@@ -6040,7 +6326,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>12</v>
       </c>
@@ -6063,7 +6349,9 @@
       <c r="H138" s="16">
         <v>129000</v>
       </c>
-      <c r="I138" s="10"/>
+      <c r="I138" s="16">
+        <v>50000</v>
+      </c>
       <c r="J138" s="10" t="s">
         <v>18</v>
       </c>
@@ -6075,7 +6363,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>12</v>
       </c>
@@ -6098,7 +6386,9 @@
       <c r="H139" s="16">
         <v>129000</v>
       </c>
-      <c r="I139" s="10"/>
+      <c r="I139" s="16">
+        <v>50000</v>
+      </c>
       <c r="J139" s="10" t="s">
         <v>18</v>
       </c>
@@ -6110,7 +6400,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>12</v>
       </c>
@@ -6133,7 +6423,9 @@
       <c r="H140" s="16">
         <v>235000</v>
       </c>
-      <c r="I140" s="10"/>
+      <c r="I140" s="16">
+        <v>50000</v>
+      </c>
       <c r="J140" s="10" t="s">
         <v>18</v>
       </c>
@@ -6144,7 +6436,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>12</v>
       </c>
@@ -6167,7 +6459,9 @@
       <c r="H141" s="16">
         <v>235000</v>
       </c>
-      <c r="I141" s="10"/>
+      <c r="I141" s="16">
+        <v>50000</v>
+      </c>
       <c r="J141" s="10" t="s">
         <v>18</v>
       </c>
@@ -6179,7 +6473,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>12</v>
       </c>
@@ -6202,7 +6496,9 @@
       <c r="H142" s="16">
         <v>235000</v>
       </c>
-      <c r="I142" s="10"/>
+      <c r="I142" s="16">
+        <v>50000</v>
+      </c>
       <c r="J142" s="10" t="s">
         <v>18</v>
       </c>
@@ -6214,7 +6510,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>12</v>
       </c>
@@ -6237,7 +6533,9 @@
       <c r="H143" s="16">
         <v>235000</v>
       </c>
-      <c r="I143" s="10"/>
+      <c r="I143" s="16">
+        <v>50000</v>
+      </c>
       <c r="J143" s="10" t="s">
         <v>18</v>
       </c>
@@ -6249,7 +6547,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>12</v>
       </c>
@@ -6272,7 +6570,9 @@
       <c r="H144" s="16">
         <v>235000</v>
       </c>
-      <c r="I144" s="10"/>
+      <c r="I144" s="16">
+        <v>50000</v>
+      </c>
       <c r="J144" s="10" t="s">
         <v>18</v>
       </c>
